--- a/Data/OpenEnded.xlsx
+++ b/Data/OpenEnded.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akunerth/Dropbox (University of Oregon)/Rapid Response Research (R3)/Data Management R3/EE_R3 Question Bank/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akunerth/Dropbox (University of Oregon)/Rapid Response Research (R3)/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A64B0DD5-E260-4145-80FD-6718683213AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1FDE7B5-95E0-2A4A-81E7-4AF4EFB98F64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10000" yWindow="460" windowWidth="20760" windowHeight="15540" xr2:uid="{8A673D2B-23AC-4849-B85E-D6BED00A64B1}"/>
+    <workbookView xWindow="8040" yWindow="460" windowWidth="20760" windowHeight="15540" xr2:uid="{8A673D2B-23AC-4849-B85E-D6BED00A64B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Question Bank " sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" concurrentCalc="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
   <si>
     <t>Question</t>
   </si>
   <si>
-    <t>Past</t>
-  </si>
-  <si>
     <t>What are the biggest challenges and concerns for you and your family right now? </t>
   </si>
   <si>
@@ -51,7 +48,10 @@
     <t>Source</t>
   </si>
   <si>
-    <t>Occurrence</t>
+    <t>Developed by RAPID Team</t>
+  </si>
+  <si>
+    <t>Is it okay to share your comments in our research communications? We will not use your name or any other identifiable information</t>
   </si>
 </sst>
 </file>
@@ -100,12 +100,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,73 +423,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2689D1A7-E07D-A54D-BF8D-68ACF4A3D5C5}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="75" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="34">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="34">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="34">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="34">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="34">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="34">
+      <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="17">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="17">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="17">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="34">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="34">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2" t="s">
-        <v>1</v>
+      <c r="B7" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Data/OpenEnded.xlsx
+++ b/Data/OpenEnded.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akunerth/Dropbox (University of Oregon)/Rapid Response Research (R3)/Data Management R3/EE_R3 Question Bank/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenkinnucan/Dropbox (University of Oregon)/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1FDE7B5-95E0-2A4A-81E7-4AF4EFB98F64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61DCC620-7F08-0445-A71D-9A831FC5E943}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8040" yWindow="460" windowWidth="20760" windowHeight="15540" xr2:uid="{8A673D2B-23AC-4849-B85E-D6BED00A64B1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
   <si>
     <t>Question</t>
   </si>
@@ -52,13 +52,20 @@
   </si>
   <si>
     <t>Is it okay to share your comments in our research communications? We will not use your name or any other identifiable information</t>
+  </si>
+  <si>
+    <t>Now that the school year has started, we would like you to think about what resources would make things easier for you to support them. This could be technology, better internet access, more time, support etc. If you have older children who are of school age, what are the resources that you wish you had (or need) in order to support your child’s education?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Many parents are also primarily responsible for their younger children’s early learning. If this is true of you, what additional resources would be helpful to make your child’s educational experience successful?  
+This could be toys, books, adult attention etc. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -78,6 +85,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -100,13 +113,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -423,19 +439,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2689D1A7-E07D-A54D-BF8D-68ACF4A3D5C5}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="75" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -443,7 +459,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="34">
+    <row r="2" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -451,7 +467,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="34">
+    <row r="3" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -459,7 +475,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="34">
+    <row r="4" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -467,7 +483,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="34">
+    <row r="5" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -475,7 +491,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="34">
+    <row r="6" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -483,11 +499,27 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="34">
+    <row r="7" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="76" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Data/OpenEnded.xlsx
+++ b/Data/OpenEnded.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenkinnucan/Dropbox (University of Oregon)/Data Management R3/EE_R3 Question Bank/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenkinnucan/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61DCC620-7F08-0445-A71D-9A831FC5E943}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E3EDDC3-798A-E647-A4C9-41C78C769B6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8040" yWindow="460" windowWidth="20760" windowHeight="15540" xr2:uid="{8A673D2B-23AC-4849-B85E-D6BED00A64B1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>Question</t>
   </si>
@@ -59,6 +59,12 @@
   <si>
     <t xml:space="preserve">Many parents are also primarily responsible for their younger children’s early learning. If this is true of you, what additional resources would be helpful to make your child’s educational experience successful?  
 This could be toys, books, adult attention etc. </t>
+  </si>
+  <si>
+    <t>What would you like your elected officials or other policymakers (for example, U.S. Congress, state and local leaders) to know about how your family is doing or what you need during this time ?</t>
+  </si>
+  <si>
+    <t>Policy Working Group</t>
   </si>
 </sst>
 </file>
@@ -439,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2689D1A7-E07D-A54D-BF8D-68ACF4A3D5C5}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -523,6 +529,14 @@
         <v>7</v>
       </c>
     </row>
+    <row r="10" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/OpenEnded.xlsx
+++ b/Data/OpenEnded.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24923"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -45,7 +45,7 @@
     <t>Source Link</t>
   </si>
   <si>
-    <t>Occurrence</t>
+    <t>Dates Used</t>
   </si>
   <si>
     <t>You may know that President Biden's administration and Congress have been working on the American Families Plan. How do you think the programs and funds from the American Families Plan will impact providers?</t>
@@ -1338,7 +1338,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95" customHeight="1"/>
